--- a/assets/data/Naming_rules_for_programming_languages_and_hypertext_languages.xlsx
+++ b/assets/data/Naming_rules_for_programming_languages_and_hypertext_languages.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngoquangtruong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngoquangtruong/GitWorkspace/ngoquangtruong-personal/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9AAF55-6029-DD4D-9D31-562276B1E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C145B709-CF1C-B04F-B630-7C398E61E49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="29160" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programming Languages" sheetId="1" r:id="rId1"/>
-    <sheet name="Hypertext Languages" sheetId="2" r:id="rId2"/>
+    <sheet name=".." sheetId="3" r:id="rId2"/>
+    <sheet name="Ngôn ngữ Đánh dấu Siêu văn bản" sheetId="4" r:id="rId3"/>
+    <sheet name="Hypertext Languages" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Element</t>
   </si>
@@ -324,13 +326,85 @@
   </si>
   <si>
     <t>fetchUserData, userName</t>
+  </si>
+  <si>
+    <t>PascalCase {UPPER_SNAKE_CASE}</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>StatusCode {SUCCESS, FAILURE}</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <t>snake_case + _ptr</t>
+  </si>
+  <si>
+    <t>int *data_ptr;</t>
+  </si>
+  <si>
+    <t>Global Variables</t>
+  </si>
+  <si>
+    <t>Local Variables</t>
+  </si>
+  <si>
+    <t>g_ + snake_case</t>
+  </si>
+  <si>
+    <t>int user_age;</t>
+  </si>
+  <si>
+    <t>char character;</t>
+  </si>
+  <si>
+    <t>int g_user_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char g_config_value; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">long long MAX_INTERGER; </t>
+  </si>
+  <si>
+    <t>double PI;</t>
+  </si>
+  <si>
+    <t>int get_value();</t>
+  </si>
+  <si>
+    <t>long long calculate_total();</t>
+  </si>
+  <si>
+    <t>char *name_ptr;</t>
+  </si>
+  <si>
+    <t>struct PersonData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{  </t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     int born_year; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     char full_name[50];</t>
+  </si>
+  <si>
+    <t>Arrays</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,6 +439,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="20">
     <fill>
@@ -482,7 +568,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -586,11 +672,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,6 +738,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,7 +961,9 @@
   </sheetPr>
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1267,17 +1373,209 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798B439-F7EF-E841-B157-FF6C798BEA62}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="37" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="2:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="37" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1022417-BAE2-6E45-9772-E916592F4D25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="36"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1480,5 +1778,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>